--- a/tests/data/no_existing_ids.xlsx
+++ b/tests/data/no_existing_ids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,21 +79,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -625,7 +693,7 @@
       <c r="E9" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -641,9 +709,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>31.7.18</t>
@@ -656,7 +724,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -672,9 +740,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>version</t>
@@ -685,6 +753,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/data/no_existing_ids.xlsx
+++ b/tests/data/no_existing_ids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,89 +79,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -693,7 +625,7 @@
       <c r="E9" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -709,9 +641,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>31.7.18</t>
@@ -724,7 +656,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -740,9 +672,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>version</t>
@@ -753,6 +685,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/no_existing_ids.xlsx
+++ b/tests/data/no_existing_ids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theano\PycharmProjects\DIMPACT\eam-data-tools\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B30F8-E3C6-4715-ADB1-D29DBB0FDC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD3215-2665-224C-8B9C-0A735AE60CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="2352" windowWidth="12264" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="2360" windowWidth="12260" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>power_latop</t>
-  </si>
-  <si>
     <t>interp</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>power_laptop</t>
   </si>
 </sst>
 </file>
@@ -460,13 +460,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,18 +525,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -551,33 +551,33 @@
         <v>43617</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>43617</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -609,14 +609,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -630,11 +630,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>2</v>
